--- a/Assets/Configs/RawTable/Store.xlsx
+++ b/Assets/Configs/RawTable/Store.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
   <si>
     <t>StoreID</t>
   </si>
@@ -74,6 +74,9 @@
     <t>1500,</t>
   </si>
   <si>
+    <t>1000,</t>
+  </si>
+  <si>
     <t>0,1,</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>-1,</t>
-  </si>
-  <si>
-    <t>1000,</t>
   </si>
 </sst>
 </file>
@@ -783,8 +783,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I18" totalsRowShown="0">
-  <autoFilter ref="A1:I18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I19" totalsRowShown="0">
+  <autoFilter ref="A1:I19"/>
   <tableColumns count="9">
     <tableColumn id="2" name="ID"/>
     <tableColumn id="5" name="StoreID"/>
@@ -1126,10 +1126,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1355,56 +1355,56 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>2001</v>
+        <v>1007</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1413,16 +1413,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1442,16 +1442,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1471,16 +1471,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1500,16 +1500,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1529,27 +1529,27 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1558,27 +1558,27 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1587,27 +1587,27 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1616,27 +1616,27 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1645,22 +1645,51 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>2010</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/Store.xlsx
+++ b/Assets/Configs/RawTable/Store.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
   <si>
     <t>StoreID</t>
   </si>
@@ -783,8 +783,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I19" totalsRowShown="0">
-  <autoFilter ref="A1:I19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I17" totalsRowShown="0">
+  <autoFilter ref="A1:I17"/>
   <tableColumns count="9">
     <tableColumn id="2" name="ID"/>
     <tableColumn id="5" name="StoreID"/>
@@ -1126,10 +1126,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1326,85 +1326,85 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>1006</v>
+        <v>2001</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>1007</v>
+        <v>2002</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1500,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
@@ -1515,12 +1515,12 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>22</v>
@@ -1544,12 +1544,12 @@
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -1631,64 +1631,6 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>2009</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>2010</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Assets/Configs/RawTable/Store.xlsx
+++ b/Assets/Configs/RawTable/Store.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>StoreID</t>
   </si>
@@ -71,19 +71,34 @@
     <t>500,</t>
   </si>
   <si>
-    <t>1500,</t>
+    <t>1400,</t>
+  </si>
+  <si>
+    <t>1600,</t>
+  </si>
+  <si>
+    <t>1250,</t>
+  </si>
+  <si>
+    <t>1800,</t>
+  </si>
+  <si>
+    <t>2000,</t>
+  </si>
+  <si>
+    <t>4600,</t>
+  </si>
+  <si>
+    <t>0,1,</t>
+  </si>
+  <si>
+    <t>3000,1600,</t>
+  </si>
+  <si>
+    <t>-1,</t>
   </si>
   <si>
     <t>1000,</t>
-  </si>
-  <si>
-    <t>0,1,</t>
-  </si>
-  <si>
-    <t>2000,1600,</t>
-  </si>
-  <si>
-    <t>-1,</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1144,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1225,7 +1240,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1254,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1283,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1306,13 +1321,13 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1332,16 +1347,16 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1361,10 +1376,10 @@
         <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -1390,10 +1405,10 @@
         <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -1419,10 +1434,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -1448,10 +1463,10 @@
         <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -1477,10 +1492,10 @@
         <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -1506,16 +1521,16 @@
         <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1535,16 +1550,16 @@
         <v>100</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1564,16 +1579,16 @@
         <v>100</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1593,16 +1608,16 @@
         <v>100</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1622,16 +1637,16 @@
         <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/Store.xlsx
+++ b/Assets/Configs/RawTable/Store.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE0BEC1-97C7-45C6-9A1F-FE6E66FC9431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E59A0B2-0CC3-4D8D-804F-B82F4AA16A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1572" yWindow="2832" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8664" yWindow="3396" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Store" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>StoreID</t>
   </si>
@@ -181,6 +181,34 @@
   </si>
   <si>
     <t>600,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2740,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,12 +260,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -259,9 +298,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +305,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -301,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1" displayName="表1" ref="A1:K17" totalsRowShown="0">
-  <autoFilter ref="A1:K17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1" displayName="表1" ref="A1:K24" totalsRowShown="0">
+  <autoFilter ref="A1:K24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="StoreID"/>
@@ -645,10 +684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -732,7 +771,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -741,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -749,14 +788,14 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
+      <c r="I3" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>37</v>
@@ -767,7 +806,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -776,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -784,14 +823,14 @@
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
+      <c r="I4" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>37</v>
@@ -802,7 +841,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -811,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -826,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>37</v>
@@ -837,7 +876,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -846,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -855,24 +894,24 @@
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -881,378 +920,623 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>2001</v>
       </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>50</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>2002</v>
       </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
         <v>50</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>2003</v>
       </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K12" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>2004</v>
       </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E13" s="4">
         <v>80</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>2005</v>
       </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
         <v>11</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E14" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="F14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>2006</v>
       </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
         <v>100</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>2007</v>
       </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
         <v>100</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>2008</v>
       </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
         <v>100</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K17" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>2009</v>
       </c>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
         <v>10</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E18" s="4">
         <v>100</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="F18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>2010</v>
       </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
         <v>11</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E19" s="4">
         <v>100</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="F19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="5">
-        <v>2</v>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>300</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>300</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>300</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4">
+        <v>300</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4">
+        <v>300</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
